--- a/tmall_tmpl.xlsx
+++ b/tmall_tmpl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>快递公司</t>
   </si>
@@ -103,13 +103,19 @@
     <t>智圣路IFC</t>
   </si>
   <si>
-    <t>发中通快递</t>
-  </si>
-  <si>
     <t>电表箱装饰画免打孔现代简约配电箱轻奢挂画遮挡箱电闸箱客厅墙画</t>
   </si>
   <si>
     <t>NC+25199+SJ+60*50+HK</t>
+  </si>
+  <si>
+    <t>685086667902</t>
+  </si>
+  <si>
+    <t>颜色: 108921
+组合形式: 黑框水晶面
+尺寸: 40x30容纳33x21
+外框类型: 悬挂NX</t>
   </si>
 </sst>
 </file>
@@ -838,6 +844,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -928,9 +937,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>354965</xdr:colOff>
+          <xdr:colOff>455930</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -945,7 +954,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25700990" y="622300"/>
+              <a:off x="19506565" y="673100"/>
               <a:ext cx="1228725" cy="342900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1221,26 +1230,34 @@
   <sheetPr/>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.3833333333333" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="33.3833333333333" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.2583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.3833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.825" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.6083333333333" style="3" customWidth="1"/>
-    <col min="4" max="5" width="33.3833333333333" style="1" customWidth="1"/>
-    <col min="6" max="11" width="18.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="37.2" style="1" customWidth="1"/>
-    <col min="13" max="14" width="21.9083333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.05" style="4" customWidth="1"/>
-    <col min="17" max="18" width="27.05" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="33.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7916666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.9166666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.675" style="1" customWidth="1"/>
+    <col min="8" max="10" width="12.0583333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6416666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="55.5833333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.4083333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1416666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.8166666666667" style="4" customWidth="1"/>
+    <col min="17" max="17" width="22.35" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.4416666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="34.4" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="33.3833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="49" customHeight="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" ht="53" customHeight="1" spans="1:20">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="3:18">
+    <row r="2" customHeight="1" spans="3:20">
       <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
@@ -1331,17 +1348,21 @@
         <v>27</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="1"/>
+      <c r="P2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="R2" s="11">
         <v>2</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="6:18">
@@ -1376,7 +1397,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:18">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:19">
       <c r="C7" s="3"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1385,6 +1406,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" customHeight="1" spans="6:18">
       <c r="F8" s="8"/>
@@ -1543,9 +1565,9 @@
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>354965</xdr:colOff>
+                <xdr:colOff>455930</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/tmall_tmpl.xlsx
+++ b/tmall_tmpl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>快递公司</t>
   </si>
@@ -95,27 +95,6 @@
   </si>
   <si>
     <t>兰山区</t>
-  </si>
-  <si>
-    <t>柳青街道</t>
-  </si>
-  <si>
-    <t>智圣路IFC</t>
-  </si>
-  <si>
-    <t>电表箱装饰画免打孔现代简约配电箱轻奢挂画遮挡箱电闸箱客厅墙画</t>
-  </si>
-  <si>
-    <t>NC+25199+SJ+60*50+HK</t>
-  </si>
-  <si>
-    <t>685086667902</t>
-  </si>
-  <si>
-    <t>颜色: 108921
-组合形式: 黑框水晶面
-尺寸: 40x30容纳33x21
-外框类型: 悬挂NX</t>
   </si>
 </sst>
 </file>
@@ -842,9 +821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,8 +1206,8 @@
   <sheetPr/>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.3833333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1330,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="8">
-        <v>15917706458</v>
+        <v>12345678910</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -1341,29 +1317,13 @@
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="1"/>
-      <c r="P2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="11">
-        <v>2</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="6:18">
       <c r="F3" s="8"/>

--- a/tmall_tmpl.xlsx
+++ b/tmall_tmpl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>快递公司</t>
   </si>
@@ -77,24 +77,6 @@
   </si>
   <si>
     <t>商品描述</t>
-  </si>
-  <si>
-    <t>2799047090549450000</t>
-  </si>
-  <si>
-    <t>哈哈哈</t>
-  </si>
-  <si>
-    <t>王小二</t>
-  </si>
-  <si>
-    <t>山东省</t>
-  </si>
-  <si>
-    <t>临沂市</t>
-  </si>
-  <si>
-    <t>兰山区</t>
   </si>
 </sst>
 </file>
@@ -818,9 +800,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,7 +1186,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.3833333333333" defaultRowHeight="20" customHeight="1"/>
@@ -1295,34 +1274,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="3:20">
-      <c r="C2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="8">
-        <v>12345678910</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1"/>
+    <row r="2" customHeight="1" spans="6:20">
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="L2" s="7"/>
       <c r="M2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="1"/>
       <c r="T2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="6:18">
@@ -1506,9 +1467,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="C2" numberStoredAsText="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <controls>
